--- a/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
+++ b/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="13680" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="13680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Battery" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,19 @@
     <definedName name="DeadMass">'Dead Mass'!$C$9</definedName>
     <definedName name="DeadMassCost">'Dead Mass'!$D$9</definedName>
     <definedName name="DeadMassQty">'Dead Mass'!$B$9</definedName>
-    <definedName name="ElecMass">Electronics!$C$13</definedName>
-    <definedName name="ElecMaxCur">Electronics!$M$13</definedName>
-    <definedName name="ElecMaxPow">Electronics!$G$13</definedName>
-    <definedName name="ElecMaxVolt">Electronics!$J$13</definedName>
-    <definedName name="ElecMinCur">Electronics!$K$13</definedName>
-    <definedName name="ElecMinPow">Electronics!$E$13</definedName>
-    <definedName name="ElecMinVolt">Electronics!$H$13</definedName>
-    <definedName name="ElecQty">Electronics!$B$13</definedName>
-    <definedName name="ElecQtyTot">Electronics!$B$13</definedName>
-    <definedName name="ElecTot">Electronics!$D$13</definedName>
-    <definedName name="ElecTypCur">Electronics!$L$13</definedName>
-    <definedName name="ElecTypPow">Electronics!$F$13</definedName>
-    <definedName name="ElecTypVolt">Electronics!$I$13</definedName>
+    <definedName name="ElecMass">Electronics!$C$15</definedName>
+    <definedName name="ElecMaxCur">Electronics!$M$15</definedName>
+    <definedName name="ElecMaxPow">Electronics!$G$15</definedName>
+    <definedName name="ElecMaxVolt">Electronics!$J$15</definedName>
+    <definedName name="ElecMinCur">Electronics!$K$15</definedName>
+    <definedName name="ElecMinPow">Electronics!$E$15</definedName>
+    <definedName name="ElecMinVolt">Electronics!$H$15</definedName>
+    <definedName name="ElecQty">Electronics!$B$15</definedName>
+    <definedName name="ElecQtyTot">Electronics!$B$15</definedName>
+    <definedName name="ElecTot">Electronics!$D$15</definedName>
+    <definedName name="ElecTypCur">Electronics!$L$15</definedName>
+    <definedName name="ElecTypPow">Electronics!$F$15</definedName>
+    <definedName name="ElecTypVolt">Electronics!$I$15</definedName>
     <definedName name="PropCost">Propulsion!$D$5</definedName>
     <definedName name="PropMass">Propulsion!$C$5</definedName>
     <definedName name="PropMaxCur">Propulsion!$O$5</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Battery</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>I =</t>
+  </si>
+  <si>
+    <t>Odroid Xu4 expansion shield</t>
+  </si>
+  <si>
+    <t>FrSky TFR4 Radio Reciever</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +368,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -608,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,6 +878,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -928,12 +947,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1239,7 +1253,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,72 +1264,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="107" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="106"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="108"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -1451,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1466,60 +1480,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="119" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="119" t="s">
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="105" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="107" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1561,7 @@
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="106"/>
+      <c r="N3" s="108"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
@@ -1591,347 +1605,387 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="77">
+    <row r="5" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="97">
         <v>1</v>
       </c>
-      <c r="C5" s="78">
-        <v>83.5</v>
-      </c>
+      <c r="C5" s="78"/>
       <c r="D5" s="79"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81">
-        <v>5</v>
-      </c>
-      <c r="J5" s="77"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="99"/>
-      <c r="L5" s="99">
-        <v>4000</v>
-      </c>
+      <c r="L5" s="99"/>
       <c r="M5" s="97"/>
-      <c r="N5" s="82" t="s">
-        <v>51</v>
-      </c>
+      <c r="N5" s="82"/>
     </row>
     <row r="6" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B6" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="78">
-        <v>26.2</v>
+        <v>83.5</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81">
-        <f>I6*L6</f>
-        <v>330</v>
+        <v>4000</v>
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="81"/>
       <c r="I6" s="81">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="77"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81">
-        <v>100</v>
-      </c>
-      <c r="M6" s="77"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99">
+        <v>4000</v>
+      </c>
+      <c r="M6" s="97"/>
       <c r="N6" s="82" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="77">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="97">
         <v>1</v>
       </c>
-      <c r="C7" s="78">
-        <v>462.2</v>
-      </c>
+      <c r="C7" s="78"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81">
-        <v>12000</v>
-      </c>
-      <c r="G7" s="77">
-        <v>12000</v>
-      </c>
-      <c r="H7" s="81">
-        <v>11.1</v>
-      </c>
-      <c r="I7" s="81">
-        <v>14.8</v>
-      </c>
-      <c r="J7" s="77">
-        <v>25</v>
-      </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="96">
-        <f>F7/I7</f>
-        <v>810.81081081081072</v>
-      </c>
-      <c r="M7" s="77"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="82"/>
     </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="77">
         <v>0</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="78">
+        <v>26.2</v>
+      </c>
       <c r="D8" s="79"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81">
-        <v>2500</v>
-      </c>
-      <c r="G8" s="77">
-        <v>2500</v>
-      </c>
+        <f>I8*L8</f>
+        <v>330</v>
+      </c>
+      <c r="G8" s="77"/>
       <c r="H8" s="81"/>
       <c r="I8" s="81">
-        <v>5</v>
-      </c>
-      <c r="J8" s="77">
-        <v>5</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="J8" s="77"/>
       <c r="K8" s="81"/>
       <c r="L8" s="81">
-        <v>500</v>
-      </c>
-      <c r="M8" s="77">
-        <v>500</v>
-      </c>
-      <c r="N8" s="82"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="77"/>
+      <c r="N8" s="82" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="77">
         <v>1</v>
       </c>
       <c r="C9" s="78">
-        <v>40.299999999999997</v>
+        <v>462.2</v>
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="81"/>
       <c r="F9" s="81">
-        <v>1500</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="81"/>
+        <v>12000</v>
+      </c>
+      <c r="G9" s="77">
+        <v>12000</v>
+      </c>
+      <c r="H9" s="81">
+        <v>11.1</v>
+      </c>
       <c r="I9" s="81">
-        <v>5</v>
-      </c>
-      <c r="J9" s="77"/>
+        <v>14.8</v>
+      </c>
+      <c r="J9" s="77">
+        <v>25</v>
+      </c>
       <c r="K9" s="81"/>
-      <c r="L9" s="81">
+      <c r="L9" s="96">
         <f>F9/I9</f>
-        <v>300</v>
+        <v>810.81081081081072</v>
       </c>
       <c r="M9" s="77"/>
-      <c r="N9" s="82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="77">
         <v>0</v>
       </c>
-      <c r="C10" s="78">
-        <v>28.1</v>
-      </c>
-      <c r="D10" s="79">
-        <v>114.95</v>
-      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81">
-        <f>I10*L10</f>
-        <v>550</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="81">
-        <v>4.75</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="G10" s="77">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="81"/>
       <c r="I10" s="81">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J10" s="77">
-        <v>6</v>
-      </c>
-      <c r="K10" s="81">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K10" s="81"/>
       <c r="L10" s="81">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M10" s="77">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N10" s="82"/>
     </row>
     <row r="11" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B11" s="77">
         <v>1</v>
       </c>
       <c r="C11" s="78">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81">
+        <v>5</v>
+      </c>
+      <c r="J11" s="77"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81">
+        <f>F11/I11</f>
+        <v>300</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="77">
+        <v>0</v>
+      </c>
+      <c r="C12" s="78">
+        <v>28.1</v>
+      </c>
+      <c r="D12" s="79">
+        <v>114.95</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81">
+        <f>I12*L12</f>
+        <v>550</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="81">
+        <v>4.75</v>
+      </c>
+      <c r="I12" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="J12" s="77">
+        <v>6</v>
+      </c>
+      <c r="K12" s="81">
+        <v>2</v>
+      </c>
+      <c r="L12" s="81">
+        <v>100</v>
+      </c>
+      <c r="M12" s="77">
+        <v>100</v>
+      </c>
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="77">
+        <v>1</v>
+      </c>
+      <c r="C13" s="78">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D13" s="79">
         <v>259.95</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E13" s="81">
         <v>4</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F13" s="81">
         <v>150</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="81">
+      <c r="G13" s="77"/>
+      <c r="H13" s="81">
         <v>2.5</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I13" s="81">
         <v>2.8</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J13" s="77">
         <v>3.1</v>
       </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88">
-        <f>F11/I11</f>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88">
+        <f>F13/I13</f>
         <v>53.571428571428577</v>
       </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="M13" s="76"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B14" s="90">
         <v>0</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C14" s="91">
         <v>128</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D14" s="92">
         <v>69.989999999999995</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93">
+      <c r="E14" s="93"/>
+      <c r="F14" s="93">
         <v>2500</v>
       </c>
-      <c r="G12" s="90">
-        <f>J12*M12</f>
+      <c r="G14" s="90">
+        <f>J14*M14</f>
         <v>2500</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93">
+      <c r="H14" s="93"/>
+      <c r="I14" s="93">
         <v>5</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J14" s="90">
         <v>5</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94">
+      <c r="K14" s="94"/>
+      <c r="L14" s="94">
         <v>500</v>
       </c>
-      <c r="M12" s="89">
+      <c r="M14" s="89">
         <v>500</v>
       </c>
-      <c r="N12" s="95"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="N14" s="95"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17">
-        <f>SUM(B4:B12)</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="45">
-        <f>B4*C4+B5*C5+B6*C6+B7*C7+B8*C8+B9*C9+B10*C10+B11*C11+B12*C12</f>
+      <c r="B15" s="17">
+        <f>SUM(B4:B14)</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="45">
+        <f>B4*C4+B6*C6+B8*C8+B9*C9+B10*C10+B11*C11+B12*C12+B13*C13+B14*C14</f>
         <v>586.54999999999995</v>
       </c>
-      <c r="D13" s="46">
-        <f>B4*D4+B5*D5+B6*D6+B7*D7+B8*D8+B9*D9+B10*D10+B11*D11+D12*B12</f>
+      <c r="D15" s="46">
+        <f>B4*D4+B6*D6+B8*D8+B9*D9+B10*D10+B11*D11+B12*D12+B13*D13+D14*B14</f>
         <v>259.95</v>
       </c>
-      <c r="E13" s="45">
-        <f>SUM(E4:E12)</f>
+      <c r="E15" s="45">
+        <f>SUM(E4:E14)</f>
         <v>3474</v>
       </c>
-      <c r="F13" s="45">
-        <f>F12*B12+B11*F11+F10*B10+B9*F9+F8*B8+B7*F7+F6*B6+B5*F5+F4*B4</f>
+      <c r="F15" s="45">
+        <f>F14*B14+B13*F13+F12*B12+B11*F11+F10*B10+B9*F9+F8*B8+B6*F6+F4*B4</f>
         <v>17650</v>
       </c>
-      <c r="G13" s="45">
-        <f>G12*B12+B11*G11+G10*B10+B9*G9+G8*B8+B7*G7+G6*B6+B5*G5+G4*B4</f>
+      <c r="G15" s="45">
+        <f>G14*B14+B13*G13+G12*B12+B11*G11+G10*B10+B9*G9+G8*B8+B6*G6+G4*B4</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="45">
-        <f>SUM(H4:H12)</f>
+      <c r="H15" s="45">
+        <f>SUM(H4:H14)</f>
         <v>27.85</v>
       </c>
-      <c r="I13" s="45">
-        <f>SUM(I4:I12)</f>
+      <c r="I15" s="45">
+        <f>SUM(I4:I14)</f>
         <v>46.4</v>
       </c>
-      <c r="J13" s="45">
-        <f>SUM(J4:J12)</f>
+      <c r="J15" s="45">
+        <f>SUM(J4:J14)</f>
         <v>57.6</v>
       </c>
-      <c r="K13" s="45">
-        <f>SUM(K4:K12)</f>
+      <c r="K15" s="45">
+        <f>SUM(K4:K14)</f>
         <v>367.26315789473682</v>
       </c>
-      <c r="L13" s="45">
-        <f>L12*B12+B11*L11+L10*B10+B9*L9+L8*B8+B7*L7+L6*B6+B5*L5+L4*B4</f>
+      <c r="L15" s="45">
+        <f>L14*B14+B13*L13+L12*B12+B11*L11+L10*B10+B9*L9+L8*B8+B6*L6+L4*B4</f>
         <v>5164.3822393822393</v>
       </c>
-      <c r="M13" s="45">
-        <f>SUM(M4:M12)</f>
+      <c r="M15" s="45">
+        <f>SUM(M4:M14)</f>
         <v>2140.833333333333</v>
       </c>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="103" t="s">
+      <c r="N15" s="18"/>
+    </row>
+    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="103" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="100" t="s">
+    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="100" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>21</v>
       </c>
     </row>
@@ -1949,13 +2003,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N4" r:id="rId1" display="http://developer.download.nvidia.com/embedded/jetson/TK1/docs/Jetson_platform_brief_May2014.pdf_x000a_"/>
-    <hyperlink ref="N9" r:id="rId2"/>
-    <hyperlink ref="N5" r:id="rId3"/>
+    <hyperlink ref="N11" r:id="rId2"/>
+    <hyperlink ref="N6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="L13" formula="1"/>
+    <ignoredError sqref="L15" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1965,7 +2019,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1976,52 +2030,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="107" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="106"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
@@ -2129,6 +2183,12 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>39*2+2*C6</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2161,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2173,46 +2233,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="119" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="119" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="120"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="119" t="s">
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="120"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="105" t="s">
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="107" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="110"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2306,7 @@
       <c r="O2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="106"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
@@ -2265,7 +2325,7 @@
         <v>1200</v>
       </c>
       <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="H3" s="105"/>
       <c r="I3" s="71"/>
       <c r="J3" s="69"/>
       <c r="K3" s="70">
@@ -2273,7 +2333,7 @@
       </c>
       <c r="L3" s="71"/>
       <c r="M3" s="69"/>
-      <c r="N3" s="126">
+      <c r="N3" s="105">
         <f>N8*(TOTAL!C8/4)*(TOTAL!C8/4)+Propulsion!N9*(TOTAL!C8/4)+Propulsion!N10</f>
         <v>4.7453291022096877</v>
       </c>
@@ -2372,8 +2432,14 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="57">
+        <f>PropTypVolt*PropTypCur</f>
+        <v>280923.48285081348</v>
+      </c>
+      <c r="I6" s="57">
+        <f>PropMaxCur*PropTypVolt</f>
+        <v>1184000</v>
+      </c>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
@@ -2407,7 +2473,7 @@
       <c r="M8" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="125">
+      <c r="N8" s="104">
         <v>4.7180000000000004E-6</v>
       </c>
       <c r="O8" s="54"/>
@@ -2460,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2472,22 +2538,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2495,7 +2561,7 @@
       </c>
       <c r="B4" s="2">
         <f>ElecQty</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <f>ElecMass</f>
@@ -2539,31 +2605,31 @@
         <f>PropMass</f>
         <v>418</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="124" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2583,15 +2649,15 @@
         <f>BattCostTot</f>
         <v>0</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
     </row>
     <row r="8" spans="1:13" s="85" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
@@ -2599,7 +2665,7 @@
       </c>
       <c r="B8" s="83">
         <f>B4+B5+B6+B7</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="83">
         <f>C4+C5+C6+C7</f>

--- a/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
+++ b/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="13680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Battery" sheetId="1" r:id="rId1"/>
@@ -37,27 +37,27 @@
     <definedName name="ElecTypCur">Electronics!$L$15</definedName>
     <definedName name="ElecTypPow">Electronics!$F$15</definedName>
     <definedName name="ElecTypVolt">Electronics!$I$15</definedName>
-    <definedName name="PropCost">Propulsion!$D$5</definedName>
-    <definedName name="PropMass">Propulsion!$C$5</definedName>
-    <definedName name="PropMaxCur">Propulsion!$O$5</definedName>
-    <definedName name="PropMaxPow">Propulsion!$I$5</definedName>
-    <definedName name="PropMaxVolt">Propulsion!$L$5</definedName>
-    <definedName name="PropMinCur">Propulsion!$M$5</definedName>
-    <definedName name="PropMinPow">Propulsion!$G$5</definedName>
-    <definedName name="PropMinVolt">Propulsion!$J$5</definedName>
-    <definedName name="PropQty">Propulsion!$B$5</definedName>
-    <definedName name="PropThrustMax">Propulsion!$F$5</definedName>
-    <definedName name="PropThrustNom">Propulsion!$E$5</definedName>
-    <definedName name="PropTypCur">Propulsion!$N$5</definedName>
-    <definedName name="PropTypPow">Propulsion!$H$5</definedName>
-    <definedName name="PropTypVolt">Propulsion!$K$5</definedName>
+    <definedName name="PropCost">Propulsion!$D$6</definedName>
+    <definedName name="PropMass">Propulsion!$C$6</definedName>
+    <definedName name="PropMaxCur">Propulsion!$O$6</definedName>
+    <definedName name="PropMaxPow">Propulsion!$I$6</definedName>
+    <definedName name="PropMaxVolt">Propulsion!$L$6</definedName>
+    <definedName name="PropMinCur">Propulsion!$M$6</definedName>
+    <definedName name="PropMinPow">Propulsion!$G$6</definedName>
+    <definedName name="PropMinVolt">Propulsion!$J$6</definedName>
+    <definedName name="PropQty">Propulsion!$B$6</definedName>
+    <definedName name="PropThrustMax">Propulsion!$F$6</definedName>
+    <definedName name="PropThrustNom">Propulsion!$E$6</definedName>
+    <definedName name="PropTypCur">Propulsion!$N$6</definedName>
+    <definedName name="PropTypPow">Propulsion!$H$6</definedName>
+    <definedName name="PropTypVolt">Propulsion!$K$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Battery</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>FrSky TFR4 Radio Reciever</t>
+  </si>
+  <si>
+    <t>20 A ESC</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,6 +887,7 @@
     <xf numFmtId="11" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -947,7 +951,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1252,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,72 +1270,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="108"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -1369,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="51">
-        <f t="shared" si="0"/>
+        <f>B4*C4</f>
         <v>815.8</v>
       </c>
       <c r="D5" s="52">
@@ -1468,7 +1474,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1480,60 +1486,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="121" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="121" t="s">
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="107" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1567,7 @@
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="108"/>
+      <c r="N3" s="109"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
@@ -1606,7 +1612,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="106" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="97">
@@ -1656,7 +1662,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="106" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="97">
@@ -1926,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="45">
-        <f>B4*C4+B6*C6+B8*C8+B9*C9+B10*C10+B11*C11+B12*C12+B13*C13+B14*C14</f>
+        <f>B4*C4+B6*C6+B8*C8+B9*C9+B10*C10+B11*C11+B12*C12+B13*C13+B14*C14+B5*C5+B7*C7</f>
         <v>586.54999999999995</v>
       </c>
       <c r="D15" s="46">
@@ -2019,7 +2025,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2030,52 +2036,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="108"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
@@ -2134,7 +2140,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="73">
         <v>39</v>
@@ -2169,11 +2175,11 @@
       </c>
       <c r="B9" s="24">
         <f>SUM(B4:B8)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="48">
         <f>C8*B8+B7*C7+C5*B5+B4*C4+C6*B6</f>
-        <v>549</v>
+        <v>471</v>
       </c>
       <c r="D9" s="49">
         <f>SUM(D4:D8)</f>
@@ -2211,18 +2217,15 @@
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C9" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2233,46 +2236,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="121" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="121" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="121" t="s">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="107" t="s">
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="112"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2306,7 +2309,7 @@
       <c r="O2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="108"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
@@ -2316,8 +2319,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="63">
-        <f>65+28.4</f>
-        <v>93.4</v>
+        <v>68.7</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="67"/>
@@ -2334,8 +2336,8 @@
       <c r="L3" s="71"/>
       <c r="M3" s="69"/>
       <c r="N3" s="105">
-        <f>N8*(TOTAL!C8/4)*(TOTAL!C8/4)+Propulsion!N9*(TOTAL!C8/4)+Propulsion!N10</f>
-        <v>4.7453291022096877</v>
+        <f>N9*(TOTAL!C8/4)*(TOTAL!C8/4)+Propulsion!N10*(TOTAL!C8/4)+Propulsion!N11</f>
+        <v>4.5238328166596862</v>
       </c>
       <c r="O3" s="71">
         <v>20000</v>
@@ -2344,165 +2346,189 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B4" s="41">
         <v>4</v>
       </c>
       <c r="C4" s="41">
-        <v>11.1</v>
+        <v>28.4</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="44"/>
       <c r="F4" s="43"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="60"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="60"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="N4" s="128"/>
       <c r="O4" s="60"/>
       <c r="P4" s="39"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:16" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="41">
+        <v>4</v>
+      </c>
+      <c r="C5" s="41">
+        <v>11.1</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="29">
-        <f t="shared" ref="B5:M5" si="0">SUM(B3:B4)</f>
-        <v>8</v>
-      </c>
-      <c r="C5" s="47">
-        <f>B4*C4+B3*C3</f>
-        <v>418</v>
-      </c>
-      <c r="D5" s="47">
+      <c r="B6" s="29">
+        <f t="shared" ref="B6:M6" si="0">SUM(B3:B5)</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="47">
+        <f>B5*C5+B3*C3+B4*C4</f>
+        <v>432.79999999999995</v>
+      </c>
+      <c r="D6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E6" s="47">
         <f>4*E3</f>
         <v>0</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F6" s="47">
         <f>4*F3:F3</f>
         <v>4800</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K6" s="47">
         <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N6" s="47">
         <f>4*N3*1000</f>
-        <v>18981.316408838749</v>
-      </c>
-      <c r="O5" s="47">
+        <v>18095.331266638746</v>
+      </c>
+      <c r="O6" s="47">
         <f>4*O3</f>
         <v>80000</v>
       </c>
-      <c r="P5" s="30"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="57"/>
-      <c r="H6" s="57">
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f>PropTypVolt*PropTypCur</f>
-        <v>280923.48285081348</v>
-      </c>
-      <c r="I6" s="57">
+        <v>267810.90274625347</v>
+      </c>
+      <c r="I7" s="57">
         <f>PropMaxCur*PropTypVolt</f>
         <v>1184000</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55" t="s">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O8" s="62" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="104">
-        <v>4.7180000000000004E-6</v>
-      </c>
-      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
       <c r="L9" s="56"/>
       <c r="M9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="104">
+        <v>4.7180000000000004E-6</v>
+      </c>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N10" s="54">
         <v>8.5039999999999994E-3</v>
       </c>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
         <v>76</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-1.947284</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2526,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,22 +2564,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2578,11 +2604,11 @@
       </c>
       <c r="B5" s="5">
         <f>PropQty</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <f>PropMass</f>
-        <v>418</v>
+        <v>432.79999999999995</v>
       </c>
       <c r="D5" s="6">
         <f>PropCost</f>
@@ -2595,41 +2621,41 @@
       </c>
       <c r="B6" s="8">
         <f>DeadMassQty</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8">
         <f>DeadMass</f>
-        <v>549</v>
+        <v>471</v>
       </c>
       <c r="D6" s="9">
         <f>PropMass</f>
-        <v>418</v>
-      </c>
-      <c r="E6" s="124" t="s">
+        <v>432.79999999999995</v>
+      </c>
+      <c r="E6" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="124" t="s">
+      <c r="J6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="124" t="s">
+      <c r="L6" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="124" t="s">
+      <c r="M6" s="125" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2649,15 +2675,15 @@
         <f>BattCostTot</f>
         <v>0</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" spans="1:13" s="85" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
@@ -2665,15 +2691,15 @@
       </c>
       <c r="B8" s="83">
         <f>B4+B5+B6+B7</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="83">
         <f>C4+C5+C6+C7</f>
-        <v>2369.35</v>
+        <v>2306.1499999999996</v>
       </c>
       <c r="D8" s="84">
         <f t="shared" ref="D8" si="0">D4+D5+D6+D7</f>
-        <v>1004.55</v>
+        <v>1019.3499999999999</v>
       </c>
       <c r="E8" s="101">
         <f>PropThrustNom</f>
@@ -2685,7 +2711,7 @@
       </c>
       <c r="G8" s="101">
         <f>2*C8</f>
-        <v>4738.7</v>
+        <v>4612.2999999999993</v>
       </c>
       <c r="H8" s="101">
         <f>BattCap</f>
@@ -2701,11 +2727,11 @@
       </c>
       <c r="K8" s="102">
         <f>ElecTypCur+PropTypCur</f>
-        <v>24145.69864822099</v>
+        <v>23259.713506020984</v>
       </c>
       <c r="L8" s="101">
         <f>(H8/1000)/((K8/1000))*60</f>
-        <v>24.84914637349733</v>
+        <v>25.795674561713096</v>
       </c>
       <c r="M8" s="101">
         <f>(H8/1000)/(J8/1000)*60</f>
@@ -2718,7 +2744,7 @@
       </c>
       <c r="G9">
         <f>G8/4</f>
-        <v>1184.675</v>
+        <v>1153.0749999999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2727,7 +2753,7 @@
       </c>
       <c r="G10">
         <f>G9/2</f>
-        <v>592.33749999999998</v>
+        <v>576.53749999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
+++ b/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="13680"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="13680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Battery" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>Battery</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>20 A ESC</t>
+  </si>
+  <si>
+    <t>*80% of total used</t>
   </si>
 </sst>
 </file>
@@ -888,6 +891,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -950,9 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1270,72 +1273,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="109" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="109"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -1486,60 +1489,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="122" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="122" t="s">
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="109" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1570,7 @@
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="109"/>
+      <c r="N3" s="110"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
@@ -2036,52 +2039,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="109" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="109"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
@@ -2224,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2236,46 +2239,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="122" t="s">
+      <c r="F1" s="125"/>
+      <c r="G1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="122" t="s">
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="122" t="s">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="108" t="s">
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="109" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="113"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2309,7 +2312,7 @@
       <c r="O2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="109"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
@@ -2360,13 +2363,13 @@
       <c r="E4" s="44"/>
       <c r="F4" s="43"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="128"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="60"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="60"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="128"/>
+      <c r="N4" s="107"/>
       <c r="O4" s="60"/>
       <c r="P4" s="39"/>
     </row>
@@ -2552,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,22 +2567,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="108" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="113" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2631,31 +2634,31 @@
         <f>PropMass</f>
         <v>432.79999999999995</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="126" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2675,15 +2678,15 @@
         <f>BattCostTot</f>
         <v>0</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
     </row>
     <row r="8" spans="1:13" s="85" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
@@ -2714,8 +2717,8 @@
         <v>4612.2999999999993</v>
       </c>
       <c r="H8" s="101">
-        <f>BattCap</f>
-        <v>10000</v>
+        <f>BattCap*0.8</f>
+        <v>8000</v>
       </c>
       <c r="I8" s="101">
         <f>ElecTypPow+PropTypPow</f>
@@ -2731,11 +2734,11 @@
       </c>
       <c r="L8" s="101">
         <f>(H8/1000)/((K8/1000))*60</f>
-        <v>25.795674561713096</v>
+        <v>20.636539649370476</v>
       </c>
       <c r="M8" s="101">
         <f>(H8/1000)/(J8/1000)*60</f>
-        <v>7.0451987582497173</v>
+        <v>5.6361590065997742</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2745,6 +2748,9 @@
       <c r="G9">
         <f>G8/4</f>
         <v>1153.0749999999998</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
+++ b/Technical/Technical Budgets/PowerMassBOM_ABee_NEW.xlsx
@@ -24,19 +24,19 @@
     <definedName name="DeadMass">'Dead Mass'!$C$9</definedName>
     <definedName name="DeadMassCost">'Dead Mass'!$D$9</definedName>
     <definedName name="DeadMassQty">'Dead Mass'!$B$9</definedName>
-    <definedName name="ElecMass">Electronics!$C$15</definedName>
-    <definedName name="ElecMaxCur">Electronics!$M$15</definedName>
-    <definedName name="ElecMaxPow">Electronics!$G$15</definedName>
-    <definedName name="ElecMaxVolt">Electronics!$J$15</definedName>
-    <definedName name="ElecMinCur">Electronics!$K$15</definedName>
-    <definedName name="ElecMinPow">Electronics!$E$15</definedName>
-    <definedName name="ElecMinVolt">Electronics!$H$15</definedName>
-    <definedName name="ElecQty">Electronics!$B$15</definedName>
-    <definedName name="ElecQtyTot">Electronics!$B$15</definedName>
-    <definedName name="ElecTot">Electronics!$D$15</definedName>
-    <definedName name="ElecTypCur">Electronics!$L$15</definedName>
-    <definedName name="ElecTypPow">Electronics!$F$15</definedName>
-    <definedName name="ElecTypVolt">Electronics!$I$15</definedName>
+    <definedName name="ElecMass">Electronics!$C$16</definedName>
+    <definedName name="ElecMaxCur">Electronics!$M$16</definedName>
+    <definedName name="ElecMaxPow">Electronics!$G$16</definedName>
+    <definedName name="ElecMaxVolt">Electronics!$J$16</definedName>
+    <definedName name="ElecMinCur">Electronics!$K$16</definedName>
+    <definedName name="ElecMinPow">Electronics!$E$16</definedName>
+    <definedName name="ElecMinVolt">Electronics!$H$16</definedName>
+    <definedName name="ElecQty">Electronics!$B$16</definedName>
+    <definedName name="ElecQtyTot">Electronics!$B$16</definedName>
+    <definedName name="ElecTot">Electronics!$D$16</definedName>
+    <definedName name="ElecTypCur">Electronics!$L$16</definedName>
+    <definedName name="ElecTypPow">Electronics!$F$16</definedName>
+    <definedName name="ElecTypVolt">Electronics!$I$16</definedName>
     <definedName name="PropCost">Propulsion!$D$6</definedName>
     <definedName name="PropMass">Propulsion!$C$6</definedName>
     <definedName name="PropMaxCur">Propulsion!$O$6</definedName>
@@ -181,9 +181,6 @@
     <t>Typ Power [mW]</t>
   </si>
   <si>
-    <t>Guidance</t>
-  </si>
-  <si>
     <t>ASUS Xtion Pro Live</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>quad</t>
   </si>
   <si>
-    <t>pdb</t>
-  </si>
-  <si>
     <t>Odroid XU4 &amp; case &amp; dongle</t>
   </si>
   <si>
@@ -314,6 +308,12 @@
   </si>
   <si>
     <t>*80% of total used</t>
+  </si>
+  <si>
+    <t>Guidance+custom mounts</t>
+  </si>
+  <si>
+    <t>power distribution board</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,7 +889,6 @@
     <xf numFmtId="11" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,6 +954,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1273,76 +1275,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="110"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="37">
         <v>1</v>
@@ -1408,7 +1410,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1431,7 +1433,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1474,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1489,60 +1491,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="109" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="114"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
@@ -1570,7 +1572,7 @@
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="110"/>
+      <c r="N3" s="109"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
@@ -1615,13 +1617,15 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
-        <v>80</v>
+      <c r="A5" s="128" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="97">
         <v>1</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="78">
+        <v>21.2</v>
+      </c>
       <c r="D5" s="79"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99"/>
@@ -1636,7 +1640,7 @@
     </row>
     <row r="6" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="77">
         <v>1</v>
@@ -1661,17 +1665,19 @@
       </c>
       <c r="M6" s="97"/>
       <c r="N6" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
-        <v>81</v>
+      <c r="A7" s="128" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="97">
         <v>1</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="78">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="D7" s="79"/>
       <c r="E7" s="99"/>
       <c r="F7" s="99"/>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="8" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="77">
         <v>0</v>
@@ -1712,18 +1718,19 @@
       </c>
       <c r="M8" s="77"/>
       <c r="N8" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B9" s="77">
         <v>1</v>
       </c>
       <c r="C9" s="78">
-        <v>462.2</v>
+        <f>462.2+2*4.1</f>
+        <v>470.4</v>
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="81"/>
@@ -1752,7 +1759,7 @@
     </row>
     <row r="10" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="77">
         <v>0</v>
@@ -1784,7 +1791,7 @@
     </row>
     <row r="11" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="77">
         <v>1</v>
@@ -1810,192 +1817,206 @@
       </c>
       <c r="M11" s="77"/>
       <c r="N11" s="82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="77">
+        <v>83</v>
+      </c>
+      <c r="B12" s="97">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>21</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="77">
         <v>0</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C13" s="78">
         <v>28.1</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D13" s="79">
         <v>114.95</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81">
-        <f>I12*L12</f>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81">
+        <f>I13*L13</f>
         <v>550</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="81">
-        <v>4.75</v>
-      </c>
-      <c r="I12" s="81">
-        <v>5.5</v>
-      </c>
-      <c r="J12" s="77">
-        <v>6</v>
-      </c>
-      <c r="K12" s="81">
-        <v>2</v>
-      </c>
-      <c r="L12" s="81">
-        <v>100</v>
-      </c>
-      <c r="M12" s="77">
-        <v>100</v>
-      </c>
-      <c r="N12" s="82"/>
-    </row>
-    <row r="13" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="77">
-        <v>1</v>
-      </c>
-      <c r="C13" s="78">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D13" s="79">
-        <v>259.95</v>
-      </c>
-      <c r="E13" s="81">
-        <v>4</v>
-      </c>
-      <c r="F13" s="81">
-        <v>150</v>
       </c>
       <c r="G13" s="77"/>
       <c r="H13" s="81">
+        <v>4.75</v>
+      </c>
+      <c r="I13" s="81">
+        <v>5.5</v>
+      </c>
+      <c r="J13" s="77">
+        <v>6</v>
+      </c>
+      <c r="K13" s="81">
+        <v>2</v>
+      </c>
+      <c r="L13" s="81">
+        <v>100</v>
+      </c>
+      <c r="M13" s="77">
+        <v>100</v>
+      </c>
+      <c r="N13" s="82"/>
+    </row>
+    <row r="14" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="77">
+        <v>1</v>
+      </c>
+      <c r="C14" s="78">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="79">
+        <v>259.95</v>
+      </c>
+      <c r="E14" s="81">
+        <v>4</v>
+      </c>
+      <c r="F14" s="81">
+        <v>150</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="81">
         <v>2.5</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I14" s="81">
         <v>2.8</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J14" s="77">
         <v>3.1</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88">
-        <f>F13/I13</f>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88">
+        <f>F14/I14</f>
         <v>53.571428571428577</v>
       </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="90">
+      <c r="M14" s="76"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="90">
         <v>0</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C15" s="91">
         <v>128</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D15" s="92">
         <v>69.989999999999995</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93">
+      <c r="E15" s="93"/>
+      <c r="F15" s="93">
         <v>2500</v>
       </c>
-      <c r="G14" s="90">
-        <f>J14*M14</f>
+      <c r="G15" s="90">
+        <f>J15*M15</f>
         <v>2500</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93">
+      <c r="H15" s="93"/>
+      <c r="I15" s="93">
         <v>5</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J15" s="90">
         <v>5</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94">
+      <c r="K15" s="94"/>
+      <c r="L15" s="94">
         <v>500</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M15" s="89">
         <v>500</v>
       </c>
-      <c r="N14" s="95"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="N15" s="95"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17">
-        <f>SUM(B4:B14)</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="45">
-        <f>B4*C4+B6*C6+B8*C8+B9*C9+B10*C10+B11*C11+B12*C12+B13*C13+B14*C14+B5*C5+B7*C7</f>
-        <v>586.54999999999995</v>
-      </c>
-      <c r="D15" s="46">
-        <f>B4*D4+B6*D6+B8*D8+B9*D9+B10*D10+B11*D11+B12*D12+B13*D13+D14*B14</f>
+      <c r="B16" s="17">
+        <f>SUM(B4:B15)</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="45">
+        <f>B4*C4+B6*C6+B8*C8+B9*C9+B10*C10+B11*C11+B13*C13+B14*C14+B15*C15+B5*C5+B7*C7+B12*C12</f>
+        <v>645.65</v>
+      </c>
+      <c r="D16" s="46">
+        <f>B4*D4+B6*D6+B8*D8+B9*D9+B10*D10+B11*D11+B13*D13+B14*D14+D15*B15</f>
         <v>259.95</v>
       </c>
-      <c r="E15" s="45">
-        <f>SUM(E4:E14)</f>
+      <c r="E16" s="45">
+        <f>SUM(E4:E15)</f>
         <v>3474</v>
       </c>
-      <c r="F15" s="45">
-        <f>F14*B14+B13*F13+F12*B12+B11*F11+F10*B10+B9*F9+F8*B8+B6*F6+F4*B4</f>
+      <c r="F16" s="45">
+        <f>F15*B15+B14*F14+F13*B13+B11*F11+F10*B10+B9*F9+F8*B8+B6*F6+F4*B4</f>
         <v>17650</v>
       </c>
-      <c r="G15" s="45">
-        <f>G14*B14+B13*G13+G12*B12+B11*G11+G10*B10+B9*G9+G8*B8+B6*G6+G4*B4</f>
+      <c r="G16" s="45">
+        <f>G15*B15+B14*G14+G13*B13+B11*G11+G10*B10+B9*G9+G8*B8+B6*G6+G4*B4</f>
         <v>12000</v>
       </c>
-      <c r="H15" s="45">
-        <f>SUM(H4:H14)</f>
+      <c r="H16" s="45">
+        <f>SUM(H4:H15)</f>
         <v>27.85</v>
       </c>
-      <c r="I15" s="45">
-        <f>SUM(I4:I14)</f>
+      <c r="I16" s="45">
+        <f>SUM(I4:I15)</f>
         <v>46.4</v>
       </c>
-      <c r="J15" s="45">
-        <f>SUM(J4:J14)</f>
+      <c r="J16" s="45">
+        <f>SUM(J4:J15)</f>
         <v>57.6</v>
       </c>
-      <c r="K15" s="45">
-        <f>SUM(K4:K14)</f>
+      <c r="K16" s="45">
+        <f>SUM(K4:K15)</f>
         <v>367.26315789473682</v>
       </c>
-      <c r="L15" s="45">
-        <f>L14*B14+B13*L13+L12*B12+B11*L11+L10*B10+B9*L9+L8*B8+B6*L6+L4*B4</f>
+      <c r="L16" s="45">
+        <f>L15*B15+B14*L14+L13*B13+B11*L11+L10*B10+B9*L9+L8*B8+B6*L6+L4*B4</f>
         <v>5164.3822393822393</v>
       </c>
-      <c r="M15" s="45">
-        <f>SUM(M4:M14)</f>
+      <c r="M16" s="45">
+        <f>SUM(M4:M15)</f>
         <v>2140.833333333333</v>
       </c>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="103" t="s">
+      <c r="N16" s="18"/>
+    </row>
+    <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="100" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2039,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="L15" formula="1"/>
+    <ignoredError sqref="L16" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2028,7 +2049,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2039,56 +2060,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="110"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="73">
         <v>1</v>
@@ -2103,12 +2124,12 @@
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
       <c r="H4" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="73">
         <v>0</v>
@@ -2124,7 +2145,7 @@
     </row>
     <row r="6" spans="1:8" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="73">
         <v>4</v>
@@ -2140,7 +2161,7 @@
     </row>
     <row r="7" spans="1:8" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="73">
         <v>2</v>
@@ -2201,7 +2222,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>330</v>
@@ -2225,60 +2246,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="123" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="123" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="123" t="s">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="109" t="s">
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2312,11 +2334,11 @@
       <c r="O2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="110"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="63">
         <v>4</v>
@@ -2339,8 +2361,8 @@
       <c r="L3" s="71"/>
       <c r="M3" s="69"/>
       <c r="N3" s="105">
-        <f>N9*(TOTAL!C8/4)*(TOTAL!C8/4)+Propulsion!N10*(TOTAL!C8/4)+Propulsion!N11</f>
-        <v>4.5238328166596862</v>
+        <f>1000*(N9*(TOTAL!C8/4)*(TOTAL!C8/4)+Propulsion!N10*(TOTAL!C8/4)+Propulsion!N11)</f>
+        <v>4730.8884299921874</v>
       </c>
       <c r="O3" s="71">
         <v>20000</v>
@@ -2351,7 +2373,7 @@
     </row>
     <row r="4" spans="1:16" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="41">
         <v>4</v>
@@ -2363,19 +2385,19 @@
       <c r="E4" s="44"/>
       <c r="F4" s="43"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="60"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="60"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="107"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="60"/>
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="41">
         <v>4</v>
@@ -2449,9 +2471,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="47">
-        <f>4*N3*1000</f>
-        <v>18095.331266638746</v>
+      <c r="N6" s="129">
+        <f>B3*N3</f>
+        <v>18923.55371996875</v>
       </c>
       <c r="O6" s="47">
         <f>4*O3</f>
@@ -2463,7 +2485,7 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57">
         <f>PropTypVolt*PropTypCur</f>
-        <v>267810.90274625347</v>
+        <v>280068.59505553753</v>
       </c>
       <c r="I7" s="57">
         <f>PropMaxCur*PropTypVolt</f>
@@ -2478,19 +2500,22 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="H8" s="55">
+        <f>H7/4</f>
+        <v>70017.148763884383</v>
+      </c>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2500,7 +2525,7 @@
       <c r="J9" s="56"/>
       <c r="L9" s="56"/>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N9" s="104">
         <v>4.7180000000000004E-6</v>
@@ -2515,7 +2540,7 @@
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N10" s="54">
         <v>8.5039999999999994E-3</v>
@@ -2524,7 +2549,7 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11">
         <v>-1.947284</v>
@@ -2532,7 +2557,13 @@
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f>18923/4</f>
+        <v>4730.75</v>
       </c>
     </row>
   </sheetData>
@@ -2555,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,22 +2598,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="109" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="112" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="114"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2590,15 +2621,15 @@
       </c>
       <c r="B4" s="2">
         <f>ElecQty</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <f>ElecMass</f>
-        <v>586.54999999999995</v>
+        <v>645.65</v>
       </c>
       <c r="D4" s="3">
         <f>ElecMass</f>
-        <v>586.54999999999995</v>
+        <v>645.65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,31 +2665,31 @@
         <f>PropMass</f>
         <v>432.79999999999995</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="G6" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="H6" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="I6" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="126" t="s">
+      <c r="K6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="126" t="s">
+      <c r="L6" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="126" t="s">
+      <c r="M6" s="125" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2678,15 +2709,15 @@
         <f>BattCostTot</f>
         <v>0</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" spans="1:13" s="85" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
@@ -2694,15 +2725,15 @@
       </c>
       <c r="B8" s="83">
         <f>B4+B5+B6+B7</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="83">
         <f>C4+C5+C6+C7</f>
-        <v>2306.1499999999996</v>
+        <v>2365.25</v>
       </c>
       <c r="D8" s="84">
         <f t="shared" ref="D8" si="0">D4+D5+D6+D7</f>
-        <v>1019.3499999999999</v>
+        <v>1078.4499999999998</v>
       </c>
       <c r="E8" s="101">
         <f>PropThrustNom</f>
@@ -2714,7 +2745,7 @@
       </c>
       <c r="G8" s="101">
         <f>2*C8</f>
-        <v>4612.2999999999993</v>
+        <v>4730.5</v>
       </c>
       <c r="H8" s="101">
         <f>BattCap*0.8</f>
@@ -2730,11 +2761,11 @@
       </c>
       <c r="K8" s="102">
         <f>ElecTypCur+PropTypCur</f>
-        <v>23259.713506020984</v>
+        <v>24087.935959350987</v>
       </c>
       <c r="L8" s="101">
         <f>(H8/1000)/((K8/1000))*60</f>
-        <v>20.636539649370476</v>
+        <v>19.926987551362327</v>
       </c>
       <c r="M8" s="101">
         <f>(H8/1000)/(J8/1000)*60</f>
@@ -2743,23 +2774,23 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <f>G8/4</f>
-        <v>1153.0749999999998</v>
+        <v>1182.625</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <f>G9/2</f>
-        <v>576.53749999999991</v>
+        <v>591.3125</v>
       </c>
     </row>
   </sheetData>
